--- a/data/club_list.xlsx
+++ b/data/club_list.xlsx
@@ -1,178 +1,656 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fileVersion appName="HCell" lastEdited="11.0" lowestEdited="11.0" rupBuild="0.2292"/>
+  <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2044l\Downloads\club diary (1)\club diary\data\"/>
+    <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF145B-8557-4FEE-B277-FBD6E4125C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="9465" yWindow="2040" windowWidth="18060" windowHeight="13800" xr2:uid="{FDE1A148-E039-6B4B-975E-D3053BC4E585}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
-</workbook>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="10155" windowHeight="11340"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+  </x:sheets>
+  <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>밴디름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클러스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과학</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최원서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즁애</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동아리 분야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+  <x:si>
+    <x:t>하이애니드림하이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클로버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>히어로</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댄스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>S.P</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유니스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>블리스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미:연</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연극</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모먼트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미술</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광대</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시온</x:t>
+  </x:si>
+  <x:si>
+    <x:t>퍼스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>글로우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보히</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>초청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포커스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>혼동</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하모리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>샛별</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세인트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>투핸드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밴디름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>밴드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과학</x:t>
+  </x:si>
+  <x:si>
+    <x:t>클러스터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동아리 분야</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이라이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아크로체</x:t>
+  </x:si>
+  <x:si>
+    <x:t>루미너스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WeCD</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:fonts count="7">
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="12"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom>
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="2">
+    <x:cellStyle name="표준" xfId="0" builtinId="0"/>
+    <x:cellStyle name="Normal" xfId="1" builtinId="0" iLevel="0"/>
+  </x:cellStyles>
+  <x:dxfs count="12">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ffd7dff4"/>
+              <x:bgColor rgb="ffd7dff4"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:left style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:left>
+            <x:right style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:right>
+            <x:top style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+            <x:bottom style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+            <x:vertical style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:vertical>
+            <x:horizontal style="thin">
+              <x:color rgb="ffffffff"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf/>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ffaebfea"/>
+          <x:bgColor rgb="ffaebfea"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:top style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ffffffff"/>
+            <x:b val="1"/>
+          </x:font>
+          <x:fill>
+            <x:patternFill patternType="solid">
+              <x:fgColor rgb="ff6182d6"/>
+              <x:bgColor rgb="ff6182d6"/>
+            </x:patternFill>
+          </x:fill>
+          <x:border>
+            <x:bottom style="thick">
+              <x:color rgb="ffffffff"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:color rgb="ff000000"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color indexed="64"/>
+            </x:left>
+            <x:right>
+              <x:color indexed="64"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color indexed="64"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color indexed="64"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:color rgb="ff000000"/>
+          </x:font>
+          <x:border>
+            <x:left>
+              <x:color indexed="64"/>
+            </x:left>
+            <x:right>
+              <x:color indexed="64"/>
+            </x:right>
+            <x:top style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+            <x:vertical>
+              <x:color indexed="64"/>
+            </x:vertical>
+            <x:horizontal>
+              <x:color indexed="64"/>
+            </x:horizontal>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff94a5df"/>
+          <x:bgColor rgb="ff94a5df"/>
+        </x:patternFill>
+      </x:fill>
+      <x:border>
+        <x:top style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:top>
+        <x:bottom style="thin">
+          <x:color rgb="ff6182d6"/>
+        </x:bottom>
+      </x:border>
+    </x:dxf>
+    <x:dxf>
+      <x:fill>
+        <x:patternFill patternType="solid">
+          <x:fgColor rgb="ff6182d6"/>
+          <x:bgColor rgb="ff6182d6"/>
+        </x:patternFill>
+      </x:fill>
+    </x:dxf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:top style="thin">
+              <x:color rgb="ff6182d6"/>
+            </x:top>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:dxf hs:applyExtension="1">
+          <x:font hs:extension="1">
+            <x:b val="1"/>
+            <hs:size val="0"/>
+            <hs:ratio val="0"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:dxf>
+          <x:font>
+            <x:b val="1"/>
+          </x:font>
+          <x:border>
+            <x:bottom style="medium">
+              <x:color rgb="ff6182d6"/>
+            </x:bottom>
+          </x:border>
+        </x:dxf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </x:dxfs>
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <x:tableStyle name="Normal Style 1 - Accent 1" pivot="0" table="1" count="9">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="0"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="5"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="4"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="3"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="2"/>
+      <x:tableStyleElement type="secondColumnStripe" size="1" dxfId="1"/>
+    </x:tableStyle>
+    <x:tableStyle name="Light Style 1 - Accent 1" pivot="1" table="0" count="8">
+      <x:tableStyleElement type="wholeTable" size="1" dxfId="6"/>
+      <x:tableStyleElement type="headerRow" size="1" dxfId="11"/>
+      <x:tableStyleElement type="totalRow" size="1" dxfId="10"/>
+      <x:tableStyleElement type="firstColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="lastColumn" size="1" dxfId="9"/>
+      <x:tableStyleElement type="firstRowStripe" size="1" dxfId="7"/>
+      <x:tableStyleElement type="secondRowStripe" size="1" dxfId="1"/>
+      <x:tableStyleElement type="firstColumnStripe" size="1" dxfId="8"/>
+    </x:tableStyle>
+  </x:tableStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="0e2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="e8e8e8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="e97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="196b24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="0f9ed5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="a02b93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4ea72e"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="96607d"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -345,21 +823,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -420,6 +898,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="20000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -439,60 +938,260 @@
         </a:fontRef>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18136F5-7881-E046-B746-377D6175D0F3}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet1"/>
+  <x:dimension ref="A1:B29"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="C16" activeCellId="0" sqref="C16:C16"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="17.800000000000001"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:2">
+      <x:c r="A6" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:2">
+      <x:c r="A8" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="A10" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:2">
+      <x:c r="A11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:2">
+      <x:c r="A12" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:2">
+      <x:c r="A13" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:2">
+      <x:c r="A14" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:2">
+      <x:c r="A16" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:2">
+      <x:c r="A18" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:2">
+      <x:c r="A19" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:2">
+      <x:c r="A20" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:2">
+      <x:c r="A21" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:2">
+      <x:c r="A23" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:2">
+      <x:c r="A25" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:2">
+      <x:c r="A26" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:2">
+      <x:c r="A27" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:2">
+      <x:c r="A29" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>